--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephano\Documents\UiPath\GAVB\Dealbook\Capture Deals\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B41D866-0267-48E1-B02A-83E1C02ACE9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B973D8E9-5B87-4500-9B74-9F78D5365010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,10 +228,10 @@
     <t>Close Date,Company,Company URL,Deal Type,Investors,Round,Amount,Pre-money valuation,Source URL,Verified/unverified</t>
   </si>
   <si>
-    <t>Capture Deals</t>
-  </si>
-  <si>
     <t>Close Date,Company,Company URL,Deal Type,Investors,Round,Amount,Pre-money valuation,Source URL,Verified/unverified,Data da captura,Deal URL,Investor,Investor URL</t>
+  </si>
+  <si>
+    <t>dealbook_deals</t>
   </si>
 </sst>
 </file>
@@ -599,7 +599,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -650,7 +650,7 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -684,7 +684,7 @@
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2"/>
     </row>
